--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -2,32 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/dm282_st-andrews_ac_uk/Documents/URAS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{2109FF11-8335-4473-A474-C0A72C48EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8298B060-5CC0-4F3C-B9D6-EB9C61E5AB4D}"/>
+  <xr:revisionPtr revIDLastSave="636" documentId="8_{2109FF11-8335-4473-A474-C0A72C48EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23C20BC6-6505-46CB-97E3-60CBC7F03BD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{2BA9A8D4-EDB6-441A-AE04-33CA60F8A098}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{2BA9A8D4-EDB6-441A-AE04-33CA60F8A098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Chart1" sheetId="4" r:id="rId2"/>
-    <sheet name="timeandenergy" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="timeandenergy" sheetId="3" r:id="rId5"/>
+    <sheet name="pivotbeets" sheetId="5" r:id="rId6"/>
+    <sheet name="nbench" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$A$1:$G$1291</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$2:$D$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">timeandenergy!$A$2:$F$89</definedName>
-    <definedName name="result" localSheetId="4">Sheet2!$A$2:$F$1291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">pivotbeets!$A$2:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet2!$A$1:$G$1291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">timeandenergy!$A$2:$F$89</definedName>
+    <definedName name="collated" localSheetId="2">Sheet3!$A$2:$B$51</definedName>
+    <definedName name="collated" localSheetId="3">Sheet4!$A$2:$B$152</definedName>
+    <definedName name="result" localSheetId="7">Sheet2!$A$2:$F$1291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="12" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +56,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{645A3922-1D1B-4EF8-BDEC-C28D8B6E9661}" name="result" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{E07B869E-5730-4382-AC7A-D2C995C35C0E}" name="collated" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="1257" sourceFile="C:\Users\vishn\OneDrive - University of St Andrews\URAS\nbench-byte-2.2.3\results\time\collated.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{5ED065DF-BAF1-43E9-AC0D-D0369ECC3CAF}" name="collated1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\vishn\OneDrive - University of St Andrews\URAS\nbench-byte-2.2.3\results\energy\collated.txt">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{645A3922-1D1B-4EF8-BDEC-C28D8B6E9661}" name="result" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\vishn\OneDrive - University of St Andrews\URAS\results\energy\result.txt" space="1" consecutive="1" delimiter=":">
       <textFields count="7">
         <textField/>
@@ -64,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="216">
   <si>
     <t>aha-compress</t>
   </si>
@@ -644,6 +669,75 @@
   <si>
     <t>E/T</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>time()</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Total Energy:</t>
+  </si>
+  <si>
+    <t>Average Power:</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of B</t>
+  </si>
+  <si>
+    <t>AverageTime</t>
+  </si>
+  <si>
+    <t>0 (numeric sort)</t>
+  </si>
+  <si>
+    <t>1 (string sort)</t>
+  </si>
+  <si>
+    <t>2 (bitfield)</t>
+  </si>
+  <si>
+    <t>3 (FP emulation)</t>
+  </si>
+  <si>
+    <t>4 (Fourier)</t>
+  </si>
+  <si>
+    <t>5 (assignment)</t>
+  </si>
+  <si>
+    <t>6 (idea)</t>
+  </si>
+  <si>
+    <t>7 (huffman)</t>
+  </si>
+  <si>
+    <t>8 (neural net)</t>
+  </si>
+  <si>
+    <t>9 (lu decomposition)</t>
+  </si>
+  <si>
+    <t>Average of time()</t>
+  </si>
+  <si>
+    <t>coll</t>
+  </si>
 </sst>
 </file>
 
@@ -710,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -726,41 +820,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1045,6 +1112,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2482,6 +2552,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1267597280"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3152,7 +3223,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4213,6 +4284,101 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Darsh Manoj" refreshedDate="44053.925561805554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51" xr:uid="{BC6EDE93-71D3-42DE-B3E6-B363D3158A4F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B1048576" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="bench" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9" count="11">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="time()" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.0259999999999998" maxValue="5.431" count="20">
+        <n v="5.431"/>
+        <n v="5.43"/>
+        <n v="5.2859999999999996"/>
+        <n v="5.2880000000000003"/>
+        <n v="5.29"/>
+        <n v="5.04"/>
+        <n v="5.0460000000000003"/>
+        <n v="5.0419999999999998"/>
+        <n v="5.0380000000000003"/>
+        <n v="5.0339999999999998"/>
+        <n v="5.0359999999999996"/>
+        <n v="5.03"/>
+        <n v="5.0279999999999996"/>
+        <n v="5.0259999999999998"/>
+        <n v="5.07"/>
+        <n v="5.0579999999999998"/>
+        <n v="5.05"/>
+        <n v="5.0860000000000003"/>
+        <n v="5.0819999999999999"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Darsh Manoj" refreshedDate="44053.931907523147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="151" xr:uid="{A0C389A5-E622-4D4C-B337-6B75EAA8FB86}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="Sheet4"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="A" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Total Energy:"/>
+        <s v="Average Power:"/>
+        <s v="Time:"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="B" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.1035300000000001" maxValue="141.46600000000001"/>
+    </cacheField>
+    <cacheField name="bench" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9" count="11">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1290">
   <r>
@@ -15828,7 +15994,1188 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="51">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="19"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="151">
+  <r>
+    <x v="0"/>
+    <n v="141.17400000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.622499999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.5097800000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="141.36500000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.6569"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.5098099999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="141.46600000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.676100000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.5096400000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="141.34200000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.6799"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.5039999999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="141.441"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.671199999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.50969"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="139.11600000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.200700000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.3096199999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="139.27699999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.2316"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.3094900000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="139.29300000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.2347"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.3095100000000004"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="139.14699999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.234999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.3038499999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="139.26400000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.228899999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.3095400000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="129.27099999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.3005"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094299999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="129.416"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.328800000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094200000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="129.47800000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.3413"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093799999999998"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="129.41300000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.328499999999998"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="129.405"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.326499999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.10947"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="132.947"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.019300000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1095499999999996"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.09200000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.047999999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094900000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.11500000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.052399999999999"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094900000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.049600000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094900000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.102"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.049600000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1095499999999996"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.624"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.7607"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094799999999996"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.714"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.778500000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.10947"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.79"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.793600000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094200000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.70599999999999"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.776800000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094900000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.76599999999999"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.7883"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1095199999999998"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="130.34200000000001"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.509499999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1095699999999997"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="130.49700000000001"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.540400000000002"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094499999999998"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="130.55199999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.550999999999998"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094600000000003"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="130.54499999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.549600000000002"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.10947"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="130.58099999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.5565"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094999999999997"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.024"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.643799999999999"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093799999999998"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.13300000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.665400000000002"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093299999999999"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.21199999999999"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.680800000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093400000000004"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.18"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.674700000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093200000000003"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.215"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.6814"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093500000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.727"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.780899999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.10947"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.78200000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.791799999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094600000000003"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.69800000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.805399999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1035300000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.86699999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.809000000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093299999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="131.803"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25.7959"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094400000000002"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.869"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.200199999999999"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.10947"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.91900000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.210699999999999"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093500000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.904"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.207699999999999"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093299999999999"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.916"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.209800000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093900000000003"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="133.89500000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.2057"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093799999999998"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="134.71700000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.366"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094999999999997"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="134.65700000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.354900000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093700000000002"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="134.20699999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.2959"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1037299999999997"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="134.55000000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.3338"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1094099999999996"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="134.386"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.3018"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.1093999999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B7ABD1A-7AE5-4287-891E-905C3D84E541}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D1:P3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="21">
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of time()" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1270C45E-00A6-43F9-AC7D-87B579300507}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F1:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of B" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{249D43C9-4B8F-4077-8289-F3748701D479}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" colHeaderCaption="Values">
   <location ref="A1:D89" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -17141,23 +18488,23 @@
     <dataField name="Benchmark" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -17212,7 +18559,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result" connectionId="1" xr16:uid="{3BF2C445-BA80-4FD3-9C21-1ABA6C08B62A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="collated" connectionId="1" xr16:uid="{35C0A663-DF5D-4E75-ABB1-97C360306C93}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="collated" connectionId="2" xr16:uid="{7A8A67A1-339B-4E67-8506-06520D3F0C93}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result" connectionId="3" xr16:uid="{3BF2C445-BA80-4FD3-9C21-1ABA6C08B62A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19548,11 +20903,2427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D39A6D-40B2-460A-B513-4D1837E4E83E}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.431</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5.43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.4302000000000001</v>
+      </c>
+      <c r="F3" s="11">
+        <v>5.2875999999999994</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5.0424000000000007</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5.0351999999999997</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5.0280000000000005</v>
+      </c>
+      <c r="J3" s="11">
+        <v>5.07</v>
+      </c>
+      <c r="K3" s="11">
+        <v>5.0372000000000003</v>
+      </c>
+      <c r="L3" s="11">
+        <v>5.0484</v>
+      </c>
+      <c r="M3" s="11">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="N3" s="11">
+        <v>5.0852000000000004</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11">
+        <v>5.1102200000000018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5.2859999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5.2859999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5.2880000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5.2880000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>5.0460000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>5.0339999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5.0359999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>5.0339999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>5.0339999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>5.0279999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>5.0259999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>5.0259999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>5.0339999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>5.0579999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>5.0460000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>5.0460000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>5.0339999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>5.0860000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>5.0860000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>5.0819999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>5.0860000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>5.0860000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B51" xr:uid="{D0712068-B2A8-4BF9-9F14-2E53577DAE06}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0D6136-E4A3-4760-A4A5-C4BD760E4A70}">
+  <dimension ref="A1:R151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2">
+        <v>141.17400000000001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3">
+        <v>25.622499999999999</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="11">
+        <v>25.66132</v>
+      </c>
+      <c r="H3" s="11">
+        <v>26.226179999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <v>25.325120000000002</v>
+      </c>
+      <c r="J3" s="11">
+        <v>26.043779999999998</v>
+      </c>
+      <c r="K3" s="11">
+        <v>25.779579999999999</v>
+      </c>
+      <c r="L3" s="11">
+        <v>25.541399999999999</v>
+      </c>
+      <c r="M3" s="11">
+        <v>25.669220000000003</v>
+      </c>
+      <c r="N3" s="11">
+        <v>25.796599999999994</v>
+      </c>
+      <c r="O3" s="11">
+        <v>26.20682</v>
+      </c>
+      <c r="P3" s="11">
+        <v>26.330480000000001</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11">
+        <v>25.858050000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>5.5097800000000001</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5.5085840000000008</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5.3084019999999992</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5.1094200000000001</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5.1095139999999999</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5.1094759999999999</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5.1094900000000001</v>
+      </c>
+      <c r="M4" s="11">
+        <v>5.1093440000000001</v>
+      </c>
+      <c r="N4" s="11">
+        <v>5.1082459999999994</v>
+      </c>
+      <c r="O4" s="11">
+        <v>5.1093840000000004</v>
+      </c>
+      <c r="P4" s="11">
+        <v>5.108282</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11">
+        <v>5.1690141999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>141.36500000000001</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="11">
+        <v>141.35759999999999</v>
+      </c>
+      <c r="H5" s="11">
+        <v>139.21940000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>129.39659999999998</v>
+      </c>
+      <c r="J5" s="11">
+        <v>133.0712</v>
+      </c>
+      <c r="K5" s="11">
+        <v>131.71999999999997</v>
+      </c>
+      <c r="L5" s="11">
+        <v>130.5034</v>
+      </c>
+      <c r="M5" s="11">
+        <v>131.15280000000001</v>
+      </c>
+      <c r="N5" s="11">
+        <v>131.77539999999999</v>
+      </c>
+      <c r="O5" s="11">
+        <v>133.9006</v>
+      </c>
+      <c r="P5" s="11">
+        <v>134.5034</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11">
+        <v>133.66004000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6">
+        <v>25.6569</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>5.5098099999999999</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="11">
+        <v>57.509168000000003</v>
+      </c>
+      <c r="H7" s="11">
+        <v>56.917993999999993</v>
+      </c>
+      <c r="I7" s="11">
+        <v>53.277046666666664</v>
+      </c>
+      <c r="J7" s="11">
+        <v>54.741498</v>
+      </c>
+      <c r="K7" s="11">
+        <v>54.203018666666665</v>
+      </c>
+      <c r="L7" s="11">
+        <v>53.718096666666661</v>
+      </c>
+      <c r="M7" s="11">
+        <v>53.977121333333336</v>
+      </c>
+      <c r="N7" s="11">
+        <v>54.226748666666666</v>
+      </c>
+      <c r="O7" s="11">
+        <v>55.072268000000001</v>
+      </c>
+      <c r="P7" s="11">
+        <v>55.314054000000006</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11">
+        <v>54.895701400000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8">
+        <v>141.46600000000001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9">
+        <v>25.676100000000002</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>5.5096400000000001</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11">
+        <v>141.34200000000001</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>25.6799</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>5.5039999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14">
+        <v>141.441</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15">
+        <v>25.671199999999999</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>5.50969</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17">
+        <v>139.11600000000001</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18">
+        <v>26.200700000000001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>5.3096199999999998</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20">
+        <v>139.27699999999999</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21">
+        <v>26.2316</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>5.3094900000000003</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23">
+        <v>139.29300000000001</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24">
+        <v>26.2347</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>5.3095100000000004</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26">
+        <v>139.14699999999999</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27">
+        <v>26.234999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>5.3038499999999997</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29">
+        <v>139.26400000000001</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30">
+        <v>26.228899999999999</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>5.3095400000000001</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32">
+        <v>129.27099999999999</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33">
+        <v>25.3005</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>5.1094299999999997</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35">
+        <v>129.416</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36">
+        <v>25.328800000000001</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>5.1094200000000001</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38">
+        <v>129.47800000000001</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39">
+        <v>25.3413</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41">
+        <v>129.41300000000001</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42">
+        <v>25.328499999999998</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43">
+        <v>5.1093999999999999</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44">
+        <v>129.405</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45">
+        <v>25.326499999999999</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46">
+        <v>5.10947</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47">
+        <v>132.947</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48">
+        <v>26.019300000000001</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49">
+        <v>5.1095499999999996</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50">
+        <v>133.09200000000001</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51">
+        <v>26.047999999999998</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52">
+        <v>5.1094900000000001</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53">
+        <v>133.11500000000001</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54">
+        <v>26.052399999999999</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>5.1094900000000001</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56">
+        <v>133.1</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57">
+        <v>26.049600000000002</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58">
+        <v>5.1094900000000001</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59">
+        <v>133.102</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60">
+        <v>26.049600000000002</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61">
+        <v>5.1095499999999996</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62">
+        <v>131.624</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63">
+        <v>25.7607</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64">
+        <v>5.1094799999999996</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65">
+        <v>131.714</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66">
+        <v>25.778500000000001</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67">
+        <v>5.10947</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68">
+        <v>131.79</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69">
+        <v>25.793600000000001</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70">
+        <v>5.1094200000000001</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71">
+        <v>131.70599999999999</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72">
+        <v>25.776800000000001</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73">
+        <v>5.1094900000000001</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74">
+        <v>131.76599999999999</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75">
+        <v>25.7883</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76">
+        <v>5.1095199999999998</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77">
+        <v>130.34200000000001</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78">
+        <v>25.509499999999999</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79">
+        <v>5.1095699999999997</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80">
+        <v>130.49700000000001</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81">
+        <v>25.540400000000002</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82">
+        <v>5.1094499999999998</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83">
+        <v>130.55199999999999</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84">
+        <v>25.550999999999998</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85">
+        <v>5.1094600000000003</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86">
+        <v>130.54499999999999</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87">
+        <v>25.549600000000002</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88">
+        <v>5.10947</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89">
+        <v>130.58099999999999</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90">
+        <v>25.5565</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91">
+        <v>5.1094999999999997</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92">
+        <v>131.024</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93">
+        <v>25.643799999999999</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95">
+        <v>131.13300000000001</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96">
+        <v>25.665400000000002</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97">
+        <v>5.1093299999999999</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98">
+        <v>131.21199999999999</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99">
+        <v>25.680800000000001</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100">
+        <v>5.1093400000000004</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101">
+        <v>131.18</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102">
+        <v>25.674700000000001</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103">
+        <v>5.1093200000000003</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104">
+        <v>131.215</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105">
+        <v>25.6814</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106">
+        <v>5.1093500000000001</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107">
+        <v>131.727</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108">
+        <v>25.780899999999999</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109">
+        <v>5.10947</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110">
+        <v>131.78200000000001</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111">
+        <v>25.791799999999999</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112">
+        <v>5.1094600000000003</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113">
+        <v>131.69800000000001</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114">
+        <v>25.805399999999999</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115">
+        <v>5.1035300000000001</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116">
+        <v>131.86699999999999</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117">
+        <v>25.809000000000001</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118">
+        <v>5.1093299999999999</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119">
+        <v>131.803</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120">
+        <v>25.7959</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121">
+        <v>5.1094400000000002</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122">
+        <v>133.869</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123">
+        <v>26.200199999999999</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124">
+        <v>5.10947</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>198</v>
+      </c>
+      <c r="B125">
+        <v>133.91900000000001</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126">
+        <v>26.210699999999999</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127">
+        <v>5.1093500000000001</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128">
+        <v>133.904</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129">
+        <v>26.207699999999999</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130">
+        <v>5.1093299999999999</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131">
+        <v>133.916</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132">
+        <v>26.209800000000001</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133">
+        <v>5.1093900000000003</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134">
+        <v>133.89500000000001</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135">
+        <v>26.2057</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>198</v>
+      </c>
+      <c r="B137">
+        <v>134.71700000000001</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>199</v>
+      </c>
+      <c r="B138">
+        <v>26.366</v>
+      </c>
+      <c r="C138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139">
+        <v>5.1094999999999997</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140">
+        <v>134.65700000000001</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>199</v>
+      </c>
+      <c r="B141">
+        <v>26.354900000000001</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142">
+        <v>5.1093700000000002</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143">
+        <v>134.20699999999999</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144">
+        <v>26.2959</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145">
+        <v>5.1037299999999997</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146">
+        <v>134.55000000000001</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>199</v>
+      </c>
+      <c r="B147">
+        <v>26.3338</v>
+      </c>
+      <c r="C147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148">
+        <v>5.1094099999999996</v>
+      </c>
+      <c r="C148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>198</v>
+      </c>
+      <c r="B149">
+        <v>134.386</v>
+      </c>
+      <c r="C149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>199</v>
+      </c>
+      <c r="B150">
+        <v>26.3018</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151">
+        <v>5.1093999999999999</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C151" xr:uid="{B56E80E3-96DF-4CF5-AEAE-EC1802882239}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F46FE3C-D711-4F69-8D7F-449E2981C53A}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="163" workbookViewId="0">
-      <selection sqref="A1:C89"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21413,11 +25184,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41C5103-A0A3-4609-A319-2E5E1E083034}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -22760,7 +26531,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85725DB-EE72-4B03-9A0C-F958016B4DAC}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="13">
+        <v>5.4302000000000001</v>
+      </c>
+      <c r="C2" s="13">
+        <v>5.2875999999999994</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5.0424000000000007</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5.0351999999999997</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5.0280000000000005</v>
+      </c>
+      <c r="G2" s="13">
+        <v>5.07</v>
+      </c>
+      <c r="H2" s="13">
+        <v>5.0372000000000003</v>
+      </c>
+      <c r="I2" s="13">
+        <v>5.0484</v>
+      </c>
+      <c r="J2" s="13">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="K2" s="13">
+        <v>5.0852000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="11">
+        <v>25.66132</v>
+      </c>
+      <c r="C3" s="11">
+        <v>26.226179999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <v>25.325120000000002</v>
+      </c>
+      <c r="E3" s="11">
+        <v>26.043779999999998</v>
+      </c>
+      <c r="F3" s="11">
+        <v>25.779579999999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>25.541399999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <v>25.669220000000003</v>
+      </c>
+      <c r="I3" s="11">
+        <v>25.796599999999994</v>
+      </c>
+      <c r="J3" s="11">
+        <v>26.20682</v>
+      </c>
+      <c r="K3" s="11">
+        <v>26.330480000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.5085840000000008</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.3084019999999992</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.1094200000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.1095139999999999</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5.1094759999999999</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5.1094900000000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5.1093440000000001</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5.1082459999999994</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5.1093840000000004</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5.108282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="11">
+        <v>141.35759999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <v>139.21940000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>129.39659999999998</v>
+      </c>
+      <c r="E5" s="11">
+        <v>133.0712</v>
+      </c>
+      <c r="F5" s="11">
+        <v>131.71999999999997</v>
+      </c>
+      <c r="G5" s="11">
+        <v>130.5034</v>
+      </c>
+      <c r="H5" s="11">
+        <v>131.15280000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>131.77539999999999</v>
+      </c>
+      <c r="J5" s="11">
+        <v>133.9006</v>
+      </c>
+      <c r="K5" s="11">
+        <v>134.5034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C37048-9C2B-4B11-9441-0A34472E6913}">
   <dimension ref="A1:G1291"/>
   <sheetViews>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/dm282_st-andrews_ac_uk/Documents/URAS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="8_{2109FF11-8335-4473-A474-C0A72C48EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6A56C6F-FE46-4AC4-A05F-14AE56B7A1A0}"/>
+  <xr:revisionPtr revIDLastSave="670" documentId="8_{2109FF11-8335-4473-A474-C0A72C48EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF7EEE31-D2E3-4F62-A2F1-9B5ECA7EF6E2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{2BA9A8D4-EDB6-441A-AE04-33CA60F8A098}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{2BA9A8D4-EDB6-441A-AE04-33CA60F8A098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26955,7 +26955,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26966,6 +26966,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -27153,7 +27154,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/dm282_st-andrews_ac_uk/Documents/URAS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="670" documentId="8_{2109FF11-8335-4473-A474-C0A72C48EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF7EEE31-D2E3-4F62-A2F1-9B5ECA7EF6E2}"/>
+  <xr:revisionPtr revIDLastSave="826" documentId="8_{2109FF11-8335-4473-A474-C0A72C48EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EBCDB5FF-9A37-4B35-BD43-00F0D815A635}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{2BA9A8D4-EDB6-441A-AE04-33CA60F8A098}"/>
+    <workbookView xWindow="28785" yWindow="-15" windowWidth="28830" windowHeight="15630" firstSheet="1" activeTab="8" xr2:uid="{2BA9A8D4-EDB6-441A-AE04-33CA60F8A098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,24 +21,26 @@
     <sheet name="pivotbeets" sheetId="5" r:id="rId6"/>
     <sheet name="nbench" sheetId="8" r:id="rId7"/>
     <sheet name="cyclomatics" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="cycloanalysis" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">cyclomatics!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">cyclomatics!$A$1:$G$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">pivotbeets!$A$2:$D$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet2!$A$1:$G$1291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet2!$A$1:$G$1291</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">timeandenergy!$A$2:$F$89</definedName>
     <definedName name="collated" localSheetId="2">Sheet3!$A$2:$B$51</definedName>
     <definedName name="collated" localSheetId="3">Sheet4!$A$2:$B$152</definedName>
-    <definedName name="result" localSheetId="8">Sheet2!$A$2:$F$1291</definedName>
+    <definedName name="result" localSheetId="9">Sheet2!$A$2:$F$1291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="13" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,6 +56,66 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Darsh Manoj</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FB86AA46-62CA-4163-AB0B-3DC59BD45824}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darsh Manoj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+H = helper/secondary
+[0, 9] - benchmark number (see nbench tab)
+(-1) = irrlevant/does nothing/wrapped under #DEBUG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{7687C8E5-2AB3-4F65-83DB-0105348968F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darsh Manoj:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not in bdoc.txt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="360">
   <si>
     <t>aha-compress</t>
   </si>
@@ -1157,12 +1219,27 @@
   <si>
     <t>./misc.c(107): randnum</t>
   </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Sum of Modified McCabe Cyclomatic Complexity</t>
+  </si>
+  <si>
+    <t>Sum of Traditional McCabe Cyclomatic Complexity</t>
+  </si>
+  <si>
+    <t>Count of benchmark</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,6 +1254,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4798,6 +4888,190 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Darsh Manoj" refreshedDate="44074.59898599537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="134" xr:uid="{27A4EDBB-5367-4513-ABCD-8188F7F7EFDD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G135" sheet="cyclomatics"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Modified McCabe Cyclomatic Complexity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="36"/>
+    </cacheField>
+    <cacheField name="Traditional McCabe Cyclomatic Complexity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="51"/>
+    </cacheField>
+    <cacheField name="Statements in function" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="139"/>
+    </cacheField>
+    <cacheField name="First line of function" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="4412"/>
+    </cacheField>
+    <cacheField name="lines in function" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="277"/>
+    </cacheField>
+    <cacheField name="filename(definition line number):function" numFmtId="0">
+      <sharedItems count="134">
+        <s v="./nbench0.c(415): read_comfile"/>
+        <s v="./emfloat.c(564): AddSubInternalFPF"/>
+        <s v="./emfloat.c(935): DivideInternalFPF"/>
+        <s v="./emfloat.c(773): MultiplyInternalFPF"/>
+        <s v="./hardware.c(66): readProcCpuInfo"/>
+        <s v="./nbench1.c(2017): first_assignments"/>
+        <s v="./nbench1.c(2132): second_assignments"/>
+        <s v="./nbench1.c(2860): DoHuffIteration"/>
+        <s v="./emfloat.c(1161): InternalFPFToString"/>
+        <s v="./nbench0.c(64): main"/>
+        <s v="./nbench1.c(4258): ludcmp"/>
+        <s v="./nbench1.c(931): DoBitops"/>
+        <s v="./emfloat.c(91): DoEmFloatIteration"/>
+        <s v="./nbench1.c(2242): DoIDEA"/>
+        <s v="./nbench0.c(965): getscore"/>
+        <s v="./nbench0.c(1021): show_stats"/>
+        <s v="./nbench1.c(3763): read_data_file"/>
+        <s v="./nbench1.c(3930): DoLU"/>
+        <s v="./sysspec.c(63): AllocateMemory"/>
+        <s v="./nbench1.c(88): DoNumSort"/>
+        <s v="./nbench1.c(556): LoadStringArray"/>
+        <s v="./nbench1.c(1245): DoEmFloat"/>
+        <s v="./nbench1.c(1385): DoFourier"/>
+        <s v="./nbench1.c(1958): calc_minimum_costs"/>
+        <s v="./nbench1.c(2629): DoHuffman"/>
+        <s v="./nbench1.c(368): DoStringSort"/>
+        <s v="./nbench1.c(4146): build_problem"/>
+        <s v="./nbench1.c(1689): DoAssign"/>
+        <s v="./nbench1.c(4357): lubksb"/>
+        <s v="./nbench0.c(349): parse_arg"/>
+        <s v="./nbench1.c(1080): DoBitfieldIteration"/>
+        <s v="./nbench1.c(2379): DoIDEAIteration"/>
+        <s v="./nbench1.c(3146): DoNNET"/>
+        <s v="./emfloat.c(364): StickyShiftRightMant"/>
+        <s v="./sysspec.c(265): FarDOSmemmove"/>
+        <s v="./emfloat.c(518): choose_nan"/>
+        <s v="./nbench0.c(913): calc_confidence"/>
+        <s v="./nbench1.c(330): NumSift"/>
+        <s v="./nbench1.c(829): str_is_less"/>
+        <s v="./nbench1.c(876): strsift"/>
+        <s v="./nbench1.c(1917): Assignment"/>
+        <s v="./nbench1.c(2458): inv"/>
+        <s v="./nbench1.c(2574): cipher_idea"/>
+        <s v="./nbench1.c(3392): do_out_error"/>
+        <s v="./nbench1.c(3569): move_wt_changes"/>
+        <s v="./nbench1.c(3602): check_out_error"/>
+        <s v="./nbench1.c(3649): zero_changes"/>
+        <s v="./nbench1.c(3684): randomize_wts"/>
+        <s v="./nbench1.c(4097): DoLUIteration"/>
+        <s v="./emfloat.c(436): denormalize"/>
+        <s v="./emfloat.c(475): RoundInternalFPF"/>
+        <s v="./emfloat.c(1094): Int32ToInternalFPF"/>
+        <s v="./nbench0.c(861): seek_confidence"/>
+        <s v="./nbench0.c(1146): UParse"/>
+        <s v="./nbench1.c(207): DoNumSortIteration"/>
+        <s v="./nbench1.c(257): LoadNumArrayWithRand"/>
+        <s v="./nbench1.c(476): DoStringSortIteration"/>
+        <s v="./nbench1.c(691): stradjust"/>
+        <s v="./nbench1.c(1503): DoFPUTransIteration"/>
+        <s v="./nbench1.c(1643): thefunction"/>
+        <s v="./nbench1.c(2820): create_text_block"/>
+        <s v="./nbench1.c(3235): DoNNetIteration"/>
+        <s v="./nbench1.c(4412): lusolve"/>
+        <s v="./sysspec.c(166): FreeMemory"/>
+        <s v="./sysspec.c(396): RemoveMemArray"/>
+        <s v="./emfloat.c(312): ShiftMantLeft1"/>
+        <s v="./emfloat.c(337): ShiftMantRight1"/>
+        <s v="./nbench0.c(1172): UField"/>
+        <s v="./nbench1.c(297): NumHeapSort"/>
+        <s v="./nbench1.c(768): StrHeapSort"/>
+        <s v="./nbench1.c(1181): ToggleBitRun"/>
+        <s v="./nbench1.c(1588): TrapezoidIntegrate"/>
+        <s v="./nbench1.c(1842): LoadAssignArrayWithRand"/>
+        <s v="./nbench1.c(1876): LoadAssign"/>
+        <s v="./nbench1.c(1902): CopyToAssign"/>
+        <s v="./nbench1.c(2433): mul"/>
+        <s v="./nbench1.c(2487): en_key_idea"/>
+        <s v="./nbench1.c(2511): de_key_idea"/>
+        <s v="./nbench1.c(2762): create_text_line"/>
+        <s v="./nbench1.c(3283): do_mid_forward"/>
+        <s v="./nbench1.c(3312): do_out_forward"/>
+        <s v="./nbench1.c(3431): worst_pass_error"/>
+        <s v="./nbench1.c(3459): do_mid_error"/>
+        <s v="./nbench1.c(3488): adjust_out_wts"/>
+        <s v="./nbench1.c(3520): adjust_mid_wts"/>
+        <s v="./nbench1.c(4076): LUFreeMem"/>
+        <s v="./hardware.c(29): removeNewLine"/>
+        <s v="./hardware.c(42): runCommand"/>
+        <s v="./sysspec.c(431): CreateFile"/>
+        <s v="./sysspec.c(566): readfile"/>
+        <s v="./sysspec.c(601): readfile"/>
+        <s v="./sysspec.c(650): writefile"/>
+        <s v="./sysspec.c(687): writefile"/>
+        <s v="./emfloat.c(58): SetupCPUEmFloatArrays"/>
+        <s v="./emfloat.c(188): SetInternalFPFZero"/>
+        <s v="./emfloat.c(208): SetInternalFPFInfinity"/>
+        <s v="./emfloat.c(228): SetInternalFPFNaN"/>
+        <s v="./emfloat.c(249): IsMantissaZero"/>
+        <s v="./emfloat.c(266): Add16Bits"/>
+        <s v="./emfloat.c(290): Sub16Bits"/>
+        <s v="./emfloat.c(410): normalize"/>
+        <s v="./nbench0.c(692): getflag"/>
+        <s v="./nbench0.c(705): strtoupper"/>
+        <s v="./nbench0.c(764): bench_with_confidence"/>
+        <s v="./nbench0.c(1006): output_string"/>
+        <s v="./nbench1.c(1212): FlipBitRun"/>
+        <s v="./nbench1.c(1798): DoAssignIteration"/>
+        <s v="./nbench1.c(3063): SetCompBit"/>
+        <s v="./hardware.c(15): output_string"/>
+        <s v="./hardware.c(165): hardware"/>
+        <s v="./sysspec.c(376): AddMemArray"/>
+        <s v="./sysspec.c(488): bmOpenFile"/>
+        <s v="./sysspec.c(508): bmOpenFile"/>
+        <s v="./misc.c(74): abs_randwc"/>
+        <s v="./misc.c(107): randnum"/>
+        <s v="./pointer.c(2): main"/>
+        <s v="./nbench0.c(399): display_help"/>
+        <s v="./nbench0.c(728): set_request_secs"/>
+        <s v="./nbench0.c(1123): UCommandLine"/>
+        <s v="./hello.c(2): main"/>
+        <s v="./nbench1.c(3094): GetCompBit"/>
+        <s v="./nbench1.c(3378): do_forward_pass"/>
+        <s v="./nbench1.c(3550): do_back_pass"/>
+        <s v="./sysspec.c(241): MoveMemory"/>
+        <s v="./sysspec.c(362): InitMemArray"/>
+        <s v="./sysspec.c(535): CloseFile"/>
+        <s v="./sysspec.c(545): CloseFile"/>
+        <s v="./sysspec.c(733): ReportError"/>
+        <s v="./sysspec.c(754): ErrorExit"/>
+        <s v="./sysspec.c(782): StartStopwatch"/>
+        <s v="./sysspec.c(810): StopStopwatch"/>
+        <s v="./sysspec.c(834): TicksToSecs"/>
+        <s v="./sysspec.c(863): TicksToFracSecs"/>
+        <s v="./misc.c(52): randwc"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="benchmark" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-1" maxValue="9" count="12">
+        <s v="H"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="-1"/>
+        <n v="9"/>
+        <n v="2"/>
+        <n v="6"/>
+        <n v="8"/>
+        <n v="0"/>
+        <n v="1"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1290">
   <r>
@@ -17378,6 +17652,1217 @@
     <x v="3"/>
     <m/>
     <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="134">
+  <r>
+    <n v="10"/>
+    <n v="51"/>
+    <n v="122"/>
+    <n v="415"/>
+    <n v="271"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="47"/>
+    <n v="72"/>
+    <n v="564"/>
+    <n v="201"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="41"/>
+    <n v="64"/>
+    <n v="935"/>
+    <n v="151"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="37"/>
+    <n v="56"/>
+    <n v="773"/>
+    <n v="155"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="70"/>
+    <n v="66"/>
+    <n v="90"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="32"/>
+    <n v="82"/>
+    <n v="2017"/>
+    <n v="106"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="78"/>
+    <n v="2132"/>
+    <n v="93"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="101"/>
+    <n v="2860"/>
+    <n v="196"/>
+    <x v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="19"/>
+    <n v="78"/>
+    <n v="1161"/>
+    <n v="181"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="139"/>
+    <n v="64"/>
+    <n v="277"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="70"/>
+    <n v="4258"/>
+    <n v="82"/>
+    <x v="10"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="68"/>
+    <n v="931"/>
+    <n v="142"/>
+    <x v="11"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="13"/>
+    <n v="51"/>
+    <n v="91"/>
+    <n v="90"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="62"/>
+    <n v="2242"/>
+    <n v="129"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="965"/>
+    <n v="32"/>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="44"/>
+    <n v="1021"/>
+    <n v="86"/>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="68"/>
+    <n v="3763"/>
+    <n v="78"/>
+    <x v="16"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="65"/>
+    <n v="3930"/>
+    <n v="140"/>
+    <x v="17"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="41"/>
+    <n v="63"/>
+    <n v="95"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="41"/>
+    <n v="88"/>
+    <n v="111"/>
+    <x v="19"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="59"/>
+    <n v="556"/>
+    <n v="126"/>
+    <x v="20"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="57"/>
+    <n v="1245"/>
+    <n v="127"/>
+    <x v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="47"/>
+    <n v="1385"/>
+    <n v="107"/>
+    <x v="22"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="30"/>
+    <n v="1958"/>
+    <n v="45"/>
+    <x v="23"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="55"/>
+    <n v="2629"/>
+    <n v="126"/>
+    <x v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="37"/>
+    <n v="368"/>
+    <n v="99"/>
+    <x v="25"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="34"/>
+    <n v="4146"/>
+    <n v="82"/>
+    <x v="26"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="36"/>
+    <n v="1689"/>
+    <n v="102"/>
+    <x v="27"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="4357"/>
+    <n v="47"/>
+    <x v="28"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="20"/>
+    <n v="349"/>
+    <n v="43"/>
+    <x v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="27"/>
+    <n v="1080"/>
+    <n v="93"/>
+    <x v="30"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="25"/>
+    <n v="2379"/>
+    <n v="46"/>
+    <x v="31"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="27"/>
+    <n v="3146"/>
+    <n v="82"/>
+    <x v="32"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="19"/>
+    <n v="364"/>
+    <n v="33"/>
+    <x v="33"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="28"/>
+    <n v="265"/>
+    <n v="86"/>
+    <x v="34"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="518"/>
+    <n v="37"/>
+    <x v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="913"/>
+    <n v="46"/>
+    <x v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="330"/>
+    <n v="25"/>
+    <x v="37"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="12"/>
+    <n v="829"/>
+    <n v="35"/>
+    <x v="38"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="876"/>
+    <n v="44"/>
+    <x v="39"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="1917"/>
+    <n v="33"/>
+    <x v="40"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="2458"/>
+    <n v="23"/>
+    <x v="41"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="29"/>
+    <n v="2574"/>
+    <n v="41"/>
+    <x v="42"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="19"/>
+    <n v="3392"/>
+    <n v="33"/>
+    <x v="43"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="18"/>
+    <n v="3569"/>
+    <n v="23"/>
+    <x v="44"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="3602"/>
+    <n v="40"/>
+    <x v="45"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="18"/>
+    <n v="3649"/>
+    <n v="23"/>
+    <x v="46"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="21"/>
+    <n v="3684"/>
+    <n v="36"/>
+    <x v="47"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="27"/>
+    <n v="4097"/>
+    <n v="37"/>
+    <x v="48"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="11"/>
+    <n v="436"/>
+    <n v="30"/>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="475"/>
+    <n v="31"/>
+    <x v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="1094"/>
+    <n v="49"/>
+    <x v="51"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="21"/>
+    <n v="861"/>
+    <n v="40"/>
+    <x v="52"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="1146"/>
+    <n v="21"/>
+    <x v="53"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="207"/>
+    <n v="44"/>
+    <x v="54"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="257"/>
+    <n v="32"/>
+    <x v="55"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="28"/>
+    <n v="476"/>
+    <n v="70"/>
+    <x v="56"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="19"/>
+    <n v="691"/>
+    <n v="65"/>
+    <x v="57"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="23"/>
+    <n v="1503"/>
+    <n v="70"/>
+    <x v="58"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1643"/>
+    <n v="23"/>
+    <x v="59"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="13"/>
+    <n v="2820"/>
+    <n v="31"/>
+    <x v="60"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="3235"/>
+    <n v="39"/>
+    <x v="61"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="4412"/>
+    <n v="34"/>
+    <x v="62"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="29"/>
+    <n v="166"/>
+    <n v="68"/>
+    <x v="63"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="396"/>
+    <n v="22"/>
+    <x v="64"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="312"/>
+    <n v="18"/>
+    <x v="65"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="337"/>
+    <n v="18"/>
+    <x v="66"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="1172"/>
+    <n v="11"/>
+    <x v="67"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="297"/>
+    <n v="26"/>
+    <x v="68"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="20"/>
+    <n v="768"/>
+    <n v="50"/>
+    <x v="69"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="1181"/>
+    <n v="25"/>
+    <x v="70"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="1588"/>
+    <n v="44"/>
+    <x v="71"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="1842"/>
+    <n v="27"/>
+    <x v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="1876"/>
+    <n v="18"/>
+    <x v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="1902"/>
+    <n v="11"/>
+    <x v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="2433"/>
+    <n v="16"/>
+    <x v="75"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="2487"/>
+    <n v="17"/>
+    <x v="76"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="41"/>
+    <n v="2511"/>
+    <n v="48"/>
+    <x v="77"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="17"/>
+    <n v="2762"/>
+    <n v="46"/>
+    <x v="78"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="3283"/>
+    <n v="20"/>
+    <x v="79"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="3312"/>
+    <n v="23"/>
+    <x v="80"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="3431"/>
+    <n v="17"/>
+    <x v="81"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="3459"/>
+    <n v="20"/>
+    <x v="82"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="3488"/>
+    <n v="24"/>
+    <x v="83"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="3520"/>
+    <n v="24"/>
+    <x v="84"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="4076"/>
+    <n v="13"/>
+    <x v="85"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="29"/>
+    <n v="5"/>
+    <x v="86"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="42"/>
+    <n v="16"/>
+    <x v="87"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="431"/>
+    <n v="45"/>
+    <x v="88"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="566"/>
+    <n v="33"/>
+    <x v="89"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="601"/>
+    <n v="35"/>
+    <x v="90"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="650"/>
+    <n v="33"/>
+    <x v="91"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="687"/>
+    <n v="35"/>
+    <x v="92"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="58"/>
+    <n v="25"/>
+    <x v="93"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="188"/>
+    <n v="12"/>
+    <x v="94"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="208"/>
+    <n v="12"/>
+    <x v="95"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="228"/>
+    <n v="13"/>
+    <x v="96"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="249"/>
+    <n v="11"/>
+    <x v="97"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="266"/>
+    <n v="18"/>
+    <x v="98"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="290"/>
+    <n v="14"/>
+    <x v="99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="410"/>
+    <n v="17"/>
+    <x v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="692"/>
+    <n v="5"/>
+    <x v="101"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="705"/>
+    <n v="14"/>
+    <x v="102"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="764"/>
+    <n v="82"/>
+    <x v="103"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1006"/>
+    <n v="8"/>
+    <x v="104"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="1212"/>
+    <n v="22"/>
+    <x v="105"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="12"/>
+    <n v="1798"/>
+    <n v="37"/>
+    <x v="106"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="3063"/>
+    <n v="24"/>
+    <x v="107"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="7"/>
+    <x v="108"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="165"/>
+    <n v="24"/>
+    <x v="109"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="376"/>
+    <n v="11"/>
+    <x v="110"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="488"/>
+    <n v="15"/>
+    <x v="111"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="508"/>
+    <n v="15"/>
+    <x v="112"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="74"/>
+    <n v="9"/>
+    <x v="113"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="107"/>
+    <n v="13"/>
+    <x v="114"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <x v="115"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="399"/>
+    <n v="7"/>
+    <x v="116"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="728"/>
+    <n v="16"/>
+    <x v="117"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1123"/>
+    <n v="7"/>
+    <x v="118"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="119"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="3094"/>
+    <n v="17"/>
+    <x v="120"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3378"/>
+    <n v="7"/>
+    <x v="121"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="3550"/>
+    <n v="10"/>
+    <x v="122"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="241"/>
+    <n v="16"/>
+    <x v="123"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="362"/>
+    <n v="5"/>
+    <x v="124"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="535"/>
+    <n v="8"/>
+    <x v="125"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="545"/>
+    <n v="7"/>
+    <x v="126"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="733"/>
+    <n v="16"/>
+    <x v="127"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="754"/>
+    <n v="18"/>
+    <x v="128"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="782"/>
+    <n v="22"/>
+    <x v="129"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="810"/>
+    <n v="18"/>
+    <x v="130"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="834"/>
+    <n v="22"/>
+    <x v="131"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="863"/>
+    <n v="21"/>
+    <x v="132"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="52"/>
+    <n v="4"/>
+    <x v="133"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -18977,6 +20462,256 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACC41A7D-74F4-4F25-9F5F-05B187929759}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="135">
+        <item x="51"/>
+        <item x="8"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="33"/>
+        <item x="100"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="35"/>
+        <item x="1"/>
+        <item x="93"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="4"/>
+        <item x="119"/>
+        <item x="114"/>
+        <item x="133"/>
+        <item x="113"/>
+        <item x="104"/>
+        <item x="15"/>
+        <item x="118"/>
+        <item x="53"/>
+        <item x="67"/>
+        <item x="29"/>
+        <item x="116"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="117"/>
+        <item x="103"/>
+        <item x="52"/>
+        <item x="36"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="70"/>
+        <item x="105"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="58"/>
+        <item x="71"/>
+        <item x="59"/>
+        <item x="27"/>
+        <item x="106"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="40"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="54"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="75"/>
+        <item x="41"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="55"/>
+        <item x="42"/>
+        <item x="24"/>
+        <item x="78"/>
+        <item x="60"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="107"/>
+        <item x="120"/>
+        <item x="32"/>
+        <item x="61"/>
+        <item x="79"/>
+        <item x="37"/>
+        <item x="80"/>
+        <item x="121"/>
+        <item x="43"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="122"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="47"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="85"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="62"/>
+        <item x="56"/>
+        <item x="20"/>
+        <item x="57"/>
+        <item x="69"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="115"/>
+        <item x="63"/>
+        <item x="123"/>
+        <item x="34"/>
+        <item x="124"/>
+        <item x="110"/>
+        <item x="64"/>
+        <item x="88"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="18"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Modified McCabe Cyclomatic Complexity" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Traditional McCabe Cyclomatic Complexity" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Count of benchmark" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="collated" connectionId="1" xr16:uid="{35C0A663-DF5D-4E75-ABB1-97C360306C93}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -26955,7 +28690,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27150,12 +28885,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15CA14-FA0B-4471-A13E-292B0EA935EB}">
-  <dimension ref="A1:F135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15CA14-FA0B-4471-A13E-292B0EA935EB}">
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27165,9 +28898,10 @@
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -27186,8 +28920,11 @@
       <c r="F1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -27206,8 +28943,11 @@
       <c r="F2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -27226,8 +28966,11 @@
       <c r="F3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -27246,8 +28989,11 @@
       <c r="F4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -27266,8 +29012,11 @@
       <c r="F5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>36</v>
       </c>
@@ -27286,8 +29035,11 @@
       <c r="F6" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -27306,8 +29058,11 @@
       <c r="F7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -27326,8 +29081,11 @@
       <c r="F8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27</v>
       </c>
@@ -27346,8 +29104,11 @@
       <c r="F9" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -27366,8 +29127,11 @@
       <c r="F10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -27386,8 +29150,11 @@
       <c r="F11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -27406,8 +29173,11 @@
       <c r="F12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -27426,8 +29196,11 @@
       <c r="F13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -27446,8 +29219,11 @@
       <c r="F14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -27466,8 +29242,11 @@
       <c r="F15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -27486,8 +29265,11 @@
       <c r="F16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -27506,8 +29288,11 @@
       <c r="F17" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -27526,8 +29311,11 @@
       <c r="F18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -27546,8 +29334,11 @@
       <c r="F19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -27566,8 +29357,11 @@
       <c r="F20" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -27586,8 +29380,11 @@
       <c r="F21" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -27606,8 +29403,11 @@
       <c r="F22" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -27626,8 +29426,11 @@
       <c r="F23" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -27646,8 +29449,11 @@
       <c r="F24" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -27666,8 +29472,11 @@
       <c r="F25" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -27686,8 +29495,11 @@
       <c r="F26" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -27706,8 +29518,11 @@
       <c r="F27" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -27726,8 +29541,11 @@
       <c r="F28" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -27746,8 +29564,11 @@
       <c r="F29" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -27766,8 +29587,11 @@
       <c r="F30" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -27786,8 +29610,11 @@
       <c r="F31" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -27806,8 +29633,11 @@
       <c r="F32" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -27826,8 +29656,11 @@
       <c r="F33" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -27846,8 +29679,11 @@
       <c r="F34" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -27866,8 +29702,11 @@
       <c r="F35" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -27886,8 +29725,11 @@
       <c r="F36" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -27906,8 +29748,11 @@
       <c r="F37" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -27926,8 +29771,11 @@
       <c r="F38" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -27946,8 +29794,11 @@
       <c r="F39" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -27966,8 +29817,11 @@
       <c r="F40" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -27986,8 +29840,11 @@
       <c r="F41" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -28006,8 +29863,11 @@
       <c r="F42" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -28026,8 +29886,11 @@
       <c r="F43" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -28046,8 +29909,11 @@
       <c r="F44" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -28066,8 +29932,11 @@
       <c r="F45" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -28086,8 +29955,11 @@
       <c r="F46" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -28106,8 +29978,11 @@
       <c r="F47" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -28126,8 +30001,11 @@
       <c r="F48" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -28146,8 +30024,11 @@
       <c r="F49" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -28166,8 +30047,11 @@
       <c r="F50" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -28186,8 +30070,11 @@
       <c r="F51" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -28206,8 +30093,11 @@
       <c r="F52" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -28226,8 +30116,11 @@
       <c r="F53" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -28246,8 +30139,11 @@
       <c r="F54" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -28266,8 +30162,11 @@
       <c r="F55" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -28286,8 +30185,11 @@
       <c r="F56" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -28306,8 +30208,11 @@
       <c r="F57" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -28326,8 +30231,11 @@
       <c r="F58" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -28346,8 +30254,11 @@
       <c r="F59" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -28366,8 +30277,11 @@
       <c r="F60" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -28386,8 +30300,11 @@
       <c r="F61" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -28406,8 +30323,11 @@
       <c r="F62" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -28426,8 +30346,11 @@
       <c r="F63" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -28446,8 +30369,11 @@
       <c r="F64" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -28466,8 +30392,11 @@
       <c r="F65" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -28486,8 +30415,11 @@
       <c r="F66" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -28506,8 +30438,11 @@
       <c r="F67" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -28526,8 +30461,11 @@
       <c r="F68" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -28546,8 +30484,11 @@
       <c r="F69" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -28566,8 +30507,11 @@
       <c r="F70" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -28586,8 +30530,11 @@
       <c r="F71" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -28606,8 +30553,11 @@
       <c r="F72" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -28626,8 +30576,11 @@
       <c r="F73" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -28646,8 +30599,11 @@
       <c r="F74" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -28666,8 +30622,11 @@
       <c r="F75" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -28686,8 +30645,11 @@
       <c r="F76" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -28706,8 +30668,11 @@
       <c r="F77" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -28726,8 +30691,11 @@
       <c r="F78" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -28746,8 +30714,11 @@
       <c r="F79" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -28766,8 +30737,11 @@
       <c r="F80" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -28786,8 +30760,11 @@
       <c r="F81" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -28806,8 +30783,11 @@
       <c r="F82" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -28826,8 +30806,11 @@
       <c r="F83" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -28846,8 +30829,11 @@
       <c r="F84" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -28866,8 +30852,11 @@
       <c r="F85" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -28886,8 +30875,11 @@
       <c r="F86" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -28906,8 +30898,11 @@
       <c r="F87" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -28926,8 +30921,11 @@
       <c r="F88" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -28946,8 +30944,11 @@
       <c r="F89" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -28966,8 +30967,11 @@
       <c r="F90" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -28986,8 +30990,11 @@
       <c r="F91" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -29006,8 +31013,11 @@
       <c r="F92" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -29026,8 +31036,11 @@
       <c r="F93" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -29046,8 +31059,11 @@
       <c r="F94" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -29066,8 +31082,11 @@
       <c r="F95" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -29086,8 +31105,11 @@
       <c r="F96" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -29106,8 +31128,11 @@
       <c r="F97" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -29126,8 +31151,11 @@
       <c r="F98" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -29146,8 +31174,11 @@
       <c r="F99" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -29166,8 +31197,11 @@
       <c r="F100" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -29186,8 +31220,11 @@
       <c r="F101" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -29206,8 +31243,11 @@
       <c r="F102" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -29226,8 +31266,11 @@
       <c r="F103" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -29246,8 +31289,11 @@
       <c r="F104" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -29266,8 +31312,11 @@
       <c r="F105" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -29286,8 +31335,11 @@
       <c r="F106" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -29306,8 +31358,11 @@
       <c r="F107" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -29326,8 +31381,11 @@
       <c r="F108" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -29346,8 +31404,11 @@
       <c r="F109" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -29366,8 +31427,11 @@
       <c r="F110" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -29386,8 +31450,11 @@
       <c r="F111" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -29406,8 +31473,11 @@
       <c r="F112" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -29426,8 +31496,11 @@
       <c r="F113" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -29446,8 +31519,11 @@
       <c r="F114" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -29466,8 +31542,11 @@
       <c r="F115" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -29486,8 +31565,11 @@
       <c r="F116" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -29506,8 +31588,11 @@
       <c r="F117" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -29526,8 +31611,11 @@
       <c r="F118" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -29546,8 +31634,11 @@
       <c r="F119" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -29566,8 +31657,11 @@
       <c r="F120" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -29586,8 +31680,11 @@
       <c r="F121" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -29606,8 +31703,11 @@
       <c r="F122" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -29626,8 +31726,11 @@
       <c r="F123" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -29646,8 +31749,11 @@
       <c r="F124" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -29666,8 +31772,11 @@
       <c r="F125" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -29686,8 +31795,11 @@
       <c r="F126" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -29706,8 +31818,11 @@
       <c r="F127" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -29726,8 +31841,11 @@
       <c r="F128" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -29746,8 +31864,11 @@
       <c r="F129" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -29766,8 +31887,11 @@
       <c r="F130" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -29786,8 +31910,11 @@
       <c r="F131" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -29806,8 +31933,11 @@
       <c r="F132" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -29826,8 +31956,11 @@
       <c r="F133" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -29846,8 +31979,11 @@
       <c r="F134" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -29866,18 +32002,235 @@
       <c r="F135" t="s">
         <v>352</v>
       </c>
+      <c r="G135" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{6EDF3238-9B90-4AF5-BD0E-42F3902C1ADB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F135">
-      <sortCondition descending="1" ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G135" xr:uid="{7B8155A5-0491-4046-8BC1-43B814D12CD1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF5075C-7ABC-490D-8693-75EDE922DCC8}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="11">
+        <v>162</v>
+      </c>
+      <c r="C2" s="11">
+        <v>223</v>
+      </c>
+      <c r="D2" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>115</v>
+      </c>
+      <c r="C3" s="11">
+        <v>193</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11">
+        <v>96</v>
+      </c>
+      <c r="D4" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11">
+        <v>67</v>
+      </c>
+      <c r="D5" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11">
+        <v>59</v>
+      </c>
+      <c r="C6" s="11">
+        <v>59</v>
+      </c>
+      <c r="D6" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>47</v>
+      </c>
+      <c r="C7" s="11">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>40</v>
+      </c>
+      <c r="C8" s="11">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="11">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="11">
+        <v>722</v>
+      </c>
+      <c r="C14" s="11">
+        <v>867</v>
+      </c>
+      <c r="D14" s="11">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C37048-9C2B-4B11-9441-0A34472E6913}">
   <dimension ref="A1:G1291"/>
   <sheetViews>
